--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_8_2024-05-30_PH_60/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_8_2024-05-30_PH_60/output.xlsx
@@ -511,19 +511,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.016006067</t>
+          <t>0.024304608</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.08207649</t>
+          <t>0.082981385</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.09010115</t>
+          <t>0.08997141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.21977443</t>
+          <t>0.21961445</t>
         </is>
       </c>
       <c r="D5" t="n">
